--- a/electricity_info.xlsx
+++ b/electricity_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obi-Wan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obi-Wan\Documents\ECU\Coursework\2021 - Spring\Final_Project\solar-irradiance-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2BC801-3B6F-4992-A44E-AC1CB8ECC03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD735C0B-566D-4883-80C8-0A847EBA8E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
     <t>U.S. Total</t>
   </si>
   <si>
-    <t>Average Yearly Bill (Dollar and Cents)</t>
+    <t>Avg Yearly Consumption (kWh)</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
